--- a/Car sales/Car_Sales.xlsx
+++ b/Car sales/Car_Sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elsay\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0361A26F-4F07-40AE-A0B6-3711144DA084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9F7C2C-18F8-499E-BE12-A835FFF1D3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,8 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
@@ -80,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="209">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -1300,31 +1299,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
+  <dxfs count="68">
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
@@ -1830,6 +1805,18 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2260,7 +2247,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Car_Sales_Kaggle_DV0130EN_Lab3_Start (version 1).xlsx]Bar Chart!PivotTable4</c:name>
+    <c:name>[Car_Sales.xlsx]Bar Chart!PivotTable4</c:name>
     <c:fmtId val="8"/>
   </c:pivotSource>
   <c:chart>
@@ -2482,41 +2469,47 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Bar Chart'!$A$4:$A$8</c:f>
+              <c:f>'Bar Chart'!$A$4:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Acura</c:v>
+                  <c:v>Audi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Audi</c:v>
+                  <c:v>BMW</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BMW</c:v>
+                  <c:v>Mercedes-B</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Buick</c:v>
+                  <c:v>Porsche</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Volkswagen</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bar Chart'!$B$4:$B$8</c:f>
+              <c:f>'Bar Chart'!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>21986.666666666668</c:v>
+                  <c:v>28270</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28270</c:v>
+                  <c:v>29766.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29766.666666666668</c:v>
+                  <c:v>39876.555555555555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14941.25</c:v>
+                  <c:v>56475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13951.833333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2614,41 +2607,47 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Bar Chart'!$A$4:$A$8</c:f>
+              <c:f>'Bar Chart'!$A$4:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Acura</c:v>
+                  <c:v>Audi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Audi</c:v>
+                  <c:v>BMW</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BMW</c:v>
+                  <c:v>Mercedes-B</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Buick</c:v>
+                  <c:v>Porsche</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Volkswagen</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bar Chart'!$C$4:$C$8</c:f>
+              <c:f>'Bar Chart'!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>30633.333333333332</c:v>
+                  <c:v>39980</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39980</c:v>
+                  <c:v>33096.666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33096.666666666664</c:v>
+                  <c:v>52916.666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26781.25</c:v>
+                  <c:v>62473.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17698.333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3037,7 +3036,7 @@
             <c:strRef>
               <c:f>'Column, Pie, Sunburst Chart'!$B$2:$B$156</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4Runner</c:v>
                 </c:pt>
@@ -3050,6 +3049,21 @@
                 <c:pt idx="3">
                   <c:v>Celica</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Corolla</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Land Cruiser</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RAV4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sienna</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tacoma</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -3058,7 +3072,7 @@
               <c:f>'Column, Pie, Sunburst Chart'!$M$2:$M$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>62.35557713</c:v>
                 </c:pt>
@@ -3070,6 +3084,21 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>56.496030339999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.96897242</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102.5289842</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.955108869999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.027219470000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.297116580000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3521,6 +3550,72 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:pattFill prst="pct75">
@@ -3596,7 +3691,7 @@
             <c:strRef>
               <c:f>'Column, Pie, Sunburst Chart'!$B$2:$B$156</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4Runner</c:v>
                 </c:pt>
@@ -3609,6 +3704,21 @@
                 <c:pt idx="3">
                   <c:v>Celica</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Corolla</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Land Cruiser</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RAV4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sienna</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tacoma</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -3617,7 +3727,7 @@
               <c:f>'Column, Pie, Sunburst Chart'!$F$2:$F$156</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.87154522613065322</c:v>
                 </c:pt>
@@ -3629,6 +3739,21 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.91525925925925922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76480012206286241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65883080729972165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78902179062055899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83552396280400576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83058639833448988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3891,7 +4016,7 @@
             <c:strRef>
               <c:f>'Column, Pie, Sunburst Chart'!$B$2:$B$156</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4Runner</c:v>
                 </c:pt>
@@ -3904,6 +4029,21 @@
                 <c:pt idx="3">
                   <c:v>Celica</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Corolla</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Land Cruiser</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RAV4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sienna</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tacoma</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -3912,7 +4052,7 @@
               <c:f>'Column, Pie, Sunburst Chart'!$M$2:$M$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>62.35557713</c:v>
                 </c:pt>
@@ -3924,6 +4064,21 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>56.496030339999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.96897242</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102.5289842</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.955108869999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.027219470000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.297116580000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4375,6 +4530,72 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:pattFill prst="pct75">
@@ -4450,7 +4671,7 @@
             <c:strRef>
               <c:f>'Column, Pie, Sunburst Chart'!$B$2:$B$156</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4Runner</c:v>
                 </c:pt>
@@ -4463,6 +4684,21 @@
                 <c:pt idx="3">
                   <c:v>Celica</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Corolla</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Land Cruiser</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RAV4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sienna</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tacoma</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -4471,7 +4707,7 @@
               <c:f>'Column, Pie, Sunburst Chart'!$F$2:$F$156</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.87154522613065322</c:v>
                 </c:pt>
@@ -4483,6 +4719,21 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.91525925925925922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76480012206286241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65883080729972165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78902179062055899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83552396280400576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83058639833448988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4622,7 +4873,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Car_Sales_Kaggle_DV0130EN_Lab3_Start (version 1).xlsx]Bar Chart!PivotTable4</c:name>
+    <c:name>[Car_Sales.xlsx]Bar Chart!PivotTable4</c:name>
     <c:fmtId val="16"/>
   </c:pivotSource>
   <c:chart>
@@ -4996,7 +5247,17 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17933120875533093"/>
+          <c:y val="0.16"/>
+          <c:w val="0.67296292994965357"/>
+          <c:h val="0.61751811023622039"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -5088,41 +5349,47 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Bar Chart'!$A$4:$A$8</c:f>
+              <c:f>'Bar Chart'!$A$4:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Acura</c:v>
+                  <c:v>Audi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Audi</c:v>
+                  <c:v>BMW</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BMW</c:v>
+                  <c:v>Mercedes-B</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Buick</c:v>
+                  <c:v>Porsche</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Volkswagen</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bar Chart'!$B$4:$B$8</c:f>
+              <c:f>'Bar Chart'!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>21986.666666666668</c:v>
+                  <c:v>28270</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28270</c:v>
+                  <c:v>29766.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29766.666666666668</c:v>
+                  <c:v>39876.555555555555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14941.25</c:v>
+                  <c:v>56475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13951.833333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5220,41 +5487,47 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Bar Chart'!$A$4:$A$8</c:f>
+              <c:f>'Bar Chart'!$A$4:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Acura</c:v>
+                  <c:v>Audi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Audi</c:v>
+                  <c:v>BMW</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BMW</c:v>
+                  <c:v>Mercedes-B</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Buick</c:v>
+                  <c:v>Porsche</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Volkswagen</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bar Chart'!$C$4:$C$8</c:f>
+              <c:f>'Bar Chart'!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>30633.333333333332</c:v>
+                  <c:v>39980</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39980</c:v>
+                  <c:v>33096.666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33096.666666666664</c:v>
+                  <c:v>52916.666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26781.25</c:v>
+                  <c:v>62473.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17698.333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5362,6 +5635,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Average Price and Year Resale Value of German Car Models</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.18122855090487958"/>
+              <c:y val="2.284374453193351E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10635,13 +10974,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>930275</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>587375</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -10881,13 +11220,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:rowOff>11905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10920,13 +11259,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>550332</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>35718</xdr:colOff>
+      <xdr:colOff>35717</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -10969,7 +11308,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>607218</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -11008,8 +11347,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4886324" y="2867024"/>
-              <a:ext cx="4829175" cy="2836069"/>
+              <a:off x="4939241" y="2867024"/>
+              <a:ext cx="4875477" cy="2847975"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11042,15 +11381,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>10584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552978</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>10584</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -11086,8 +11425,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4876800" y="0"/>
-              <a:ext cx="1790700" cy="2857500"/>
+              <a:off x="5501217" y="10584"/>
+              <a:ext cx="1803928" cy="2857500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11126,7 +11465,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -11160,16 +11499,16 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:rowOff>11907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>11905</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Model 1">
@@ -11195,7 +11534,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -15074,8 +15413,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{191ED8E3-C620-497D-9A41-5CFFDA72B39C}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{191ED8E3-C620-497D-9A41-5CFFDA72B39C}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" showAll="0">
       <items count="155">
@@ -15238,10 +15577,10 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="31">
-        <item sd="0" x="0"/>
+        <item h="1" sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
+        <item h="1" sd="0" x="3"/>
         <item h="1" sd="0" x="4"/>
         <item h="1" sd="0" x="5"/>
         <item h="1" sd="0" x="6"/>
@@ -15254,19 +15593,19 @@
         <item h="1" sd="0" x="13"/>
         <item h="1" sd="0" x="14"/>
         <item h="1" sd="0" x="15"/>
-        <item h="1" sd="0" x="18"/>
+        <item sd="0" x="18"/>
         <item h="1" sd="0" x="17"/>
         <item h="1" sd="0" x="16"/>
         <item h="1" sd="0" x="19"/>
         <item h="1" sd="0" x="20"/>
         <item h="1" sd="0" x="21"/>
         <item h="1" sd="0" x="22"/>
-        <item h="1" sd="0" x="23"/>
+        <item sd="0" x="23"/>
         <item h="1" sd="0" x="24"/>
         <item h="1" sd="0" x="25"/>
         <item h="1" sd="0" x="26"/>
         <item h="1" x="27"/>
-        <item h="1" sd="0" x="28"/>
+        <item sd="0" x="28"/>
         <item h="1" sd="0" x="29"/>
         <item t="default" sd="0"/>
       </items>
@@ -15615,10 +15954,7 @@
     <field x="1"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
+  <rowItems count="6">
     <i>
       <x v="1"/>
     </i>
@@ -15626,7 +15962,13 @@
       <x v="2"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="28"/>
     </i>
     <i t="grand">
       <x/>
@@ -15648,7 +15990,7 @@
     <dataField name="Average of Price" fld="4" subtotal="average" baseField="0" baseItem="78" numFmtId="167"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="20">
+    <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -15657,7 +15999,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15666,7 +16008,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="45">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -15675,7 +16017,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15833,10 +16175,10 @@
   <data>
     <tabular pivotCacheId="1595889648">
       <items count="30">
-        <i x="0" s="1"/>
+        <i x="0"/>
         <i x="1" s="1"/>
         <i x="2" s="1"/>
-        <i x="3" s="1"/>
+        <i x="3"/>
         <i x="4"/>
         <i x="5"/>
         <i x="6"/>
@@ -15849,19 +16191,19 @@
         <i x="13"/>
         <i x="14"/>
         <i x="15"/>
-        <i x="18"/>
+        <i x="18" s="1"/>
         <i x="17"/>
         <i x="16"/>
         <i x="19"/>
         <i x="20"/>
         <i x="21"/>
         <i x="22"/>
-        <i x="23"/>
+        <i x="23" s="1"/>
         <i x="24"/>
         <i x="25"/>
         <i x="26"/>
         <i x="27"/>
-        <i x="28"/>
+        <i x="28" s="1"/>
         <i x="29"/>
       </items>
     </tabular>
@@ -15893,7 +16235,7 @@
 
 <file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Manufacturer 1" xr10:uid="{7D33039C-B82B-4417-80D5-E866733AF487}" cache="Slicer_Manufacturer" caption="Manufacturer" style="SlicerStyleLight3" rowHeight="230716"/>
+  <slicer name="Manufacturer 1" xr10:uid="{7D33039C-B82B-4417-80D5-E866733AF487}" cache="Slicer_Manufacturer" caption="Manufacturer" startItem="20" style="SlicerStyleLight3" rowHeight="230716"/>
 </slicers>
 </file>
 
@@ -15904,53 +16246,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{597DCCBB-1D00-4B74-A561-F0C0BDE98FA1}" name="Table1" displayName="Table1" ref="A1:S156" totalsRowShown="0" headerRowDxfId="71" headerRowCellStyle="60% - Accent1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{597DCCBB-1D00-4B74-A561-F0C0BDE98FA1}" name="Table1" displayName="Table1" ref="A1:S156" totalsRowShown="0" headerRowDxfId="67" headerRowCellStyle="60% - Accent1">
   <autoFilter ref="A1:S156" xr:uid="{142A1155-8F99-4580-8274-3FFCD265F860}"/>
   <tableColumns count="19">
-    <tableColumn id="2" xr3:uid="{0090DD31-AAEF-418B-A6D5-5A47F973884A}" name="Manufacturer" dataDxfId="70" dataCellStyle="60% - Accent2"/>
-    <tableColumn id="1" xr3:uid="{1D457C4B-D2B8-4760-9FBD-20980339C812}" name="Model" dataDxfId="69" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="4" xr3:uid="{8522711B-6353-4D72-9921-4036DEB24699}" name="Unit Sales" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{3F2EFF05-CEC1-43C4-8457-EC0A04BFE37D}" name="Price" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{D0C7E9A3-6A78-4834-995F-71A07F7E5FEC}" name="Year Resale Value" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{2892AE5C-2583-41F9-9297-9EA4C2895B5F}" name="Retention %" dataDxfId="65" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{0090DD31-AAEF-418B-A6D5-5A47F973884A}" name="Manufacturer" dataDxfId="66" dataCellStyle="60% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{1D457C4B-D2B8-4760-9FBD-20980339C812}" name="Model" dataDxfId="65" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="4" xr3:uid="{8522711B-6353-4D72-9921-4036DEB24699}" name="Unit Sales" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{3F2EFF05-CEC1-43C4-8457-EC0A04BFE37D}" name="Price" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{D0C7E9A3-6A78-4834-995F-71A07F7E5FEC}" name="Year Resale Value" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{2892AE5C-2583-41F9-9297-9EA4C2895B5F}" name="Retention %" dataDxfId="61" dataCellStyle="Percent">
       <calculatedColumnFormula>SUM(E2/D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{40A7E790-705B-474C-BD5E-B93CFDEAAD37}" name="Retention Value" dataDxfId="64" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{40A7E790-705B-474C-BD5E-B93CFDEAAD37}" name="Retention Value" dataDxfId="60" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(F2&gt;69%, "GOOD", "POOR")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9FD1D782-0EB9-4AC8-9FB6-1F5437BC6100}" name="Engine Size" dataDxfId="63"/>
-    <tableColumn id="10" xr3:uid="{97F7DE8D-9589-426B-AA4F-2E3F8BB7A81B}" name="Horsepower" dataDxfId="62"/>
-    <tableColumn id="11" xr3:uid="{4CB9C68E-A6F1-497A-9877-E41495059145}" name="HP Level" dataDxfId="61">
+    <tableColumn id="9" xr3:uid="{9FD1D782-0EB9-4AC8-9FB6-1F5437BC6100}" name="Engine Size" dataDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{97F7DE8D-9589-426B-AA4F-2E3F8BB7A81B}" name="Horsepower" dataDxfId="58"/>
+    <tableColumn id="11" xr3:uid="{4CB9C68E-A6F1-497A-9877-E41495059145}" name="HP Level" dataDxfId="57">
       <calculatedColumnFormula array="1">_xlfn.IFS(I2&gt;299,"High HP",I2&gt;99,"Medium HP",I2&lt;100,"Low HP")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3733B2DD-D65D-439A-9EC2-28F65DC369D7}" name="Vehicle_type" dataDxfId="60"/>
-    <tableColumn id="17" xr3:uid="{5136D0F0-2F8F-4D70-995F-CE39B1996127}" name="Fuel Efficiency" dataDxfId="59"/>
-    <tableColumn id="19" xr3:uid="{5F133F36-F1C6-453A-A10C-A9917A623804}" name="Power Perf Factor" dataDxfId="58"/>
-    <tableColumn id="12" xr3:uid="{6E551230-1170-40DA-8649-BDDA922271D8}" name="Wheelbase" dataDxfId="57"/>
-    <tableColumn id="13" xr3:uid="{53A36FF3-E823-43B4-958B-9E02EC2B56F7}" name="Width" dataDxfId="56"/>
-    <tableColumn id="14" xr3:uid="{0728B768-EB40-4E54-9F8B-8FC310D3272C}" name="Length" dataDxfId="55"/>
-    <tableColumn id="15" xr3:uid="{2264EB11-0818-4B2A-A027-42B066FA9869}" name="Curb Weight" dataDxfId="54"/>
-    <tableColumn id="16" xr3:uid="{58B24934-BE7E-4FBD-9F96-CEF0725C6117}" name="Fuel Capacity" dataDxfId="53"/>
-    <tableColumn id="18" xr3:uid="{00FF364F-DDBE-4E2C-8F3E-DBDA321FA22A}" name="Latest Launch" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{3733B2DD-D65D-439A-9EC2-28F65DC369D7}" name="Vehicle_type" dataDxfId="56"/>
+    <tableColumn id="17" xr3:uid="{5136D0F0-2F8F-4D70-995F-CE39B1996127}" name="Fuel Efficiency" dataDxfId="55"/>
+    <tableColumn id="19" xr3:uid="{5F133F36-F1C6-453A-A10C-A9917A623804}" name="Power Perf Factor" dataDxfId="54"/>
+    <tableColumn id="12" xr3:uid="{6E551230-1170-40DA-8649-BDDA922271D8}" name="Wheelbase" dataDxfId="53"/>
+    <tableColumn id="13" xr3:uid="{53A36FF3-E823-43B4-958B-9E02EC2B56F7}" name="Width" dataDxfId="52"/>
+    <tableColumn id="14" xr3:uid="{0728B768-EB40-4E54-9F8B-8FC310D3272C}" name="Length" dataDxfId="51"/>
+    <tableColumn id="15" xr3:uid="{2264EB11-0818-4B2A-A027-42B066FA9869}" name="Curb Weight" dataDxfId="50"/>
+    <tableColumn id="16" xr3:uid="{58B24934-BE7E-4FBD-9F96-CEF0725C6117}" name="Fuel Capacity" dataDxfId="49"/>
+    <tableColumn id="18" xr3:uid="{00FF364F-DDBE-4E2C-8F3E-DBDA321FA22A}" name="Latest Launch" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D2600A8-6634-4642-AAD2-0860E46FD306}" name="Table14" displayName="Table14" ref="A1:S156" totalsRowShown="0" headerRowDxfId="51" headerRowCellStyle="60% - Accent1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D2600A8-6634-4642-AAD2-0860E46FD306}" name="Table14" displayName="Table14" ref="A1:S156" totalsRowShown="0" headerRowDxfId="43" headerRowCellStyle="60% - Accent1">
   <autoFilter ref="A1:S156" xr:uid="{142A1155-8F99-4580-8274-3FFCD265F860}">
     <filterColumn colId="0">
       <filters>
         <filter val="Toyota"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="4Runner"/>
-        <filter val="Avalon"/>
-        <filter val="Camry"/>
-        <filter val="Celica"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -15958,31 +16292,31 @@
     <sortCondition ref="B1:B156"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="2" xr3:uid="{CCFD9DCD-33DA-4C1C-B39D-1F8C0CA940C0}" name="Manufacturer" dataDxfId="50" dataCellStyle="60% - Accent2"/>
-    <tableColumn id="1" xr3:uid="{91732ACF-B59B-4736-A06E-BE7ADB4669C2}" name="Model" dataDxfId="49" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="4" xr3:uid="{AC38EB39-9FE7-4815-9A95-BD4739621249}" name="Unit Sales" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{48155666-2FFE-4435-98FA-77A71F62A4CD}" name="Price" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{E6C9B305-43C4-4AA9-AF99-52F226A2A489}" name="Year Resale Value" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{53AB75B2-B4C7-4B08-A310-E333B5D08F1E}" name="Retention %" dataDxfId="45" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{CCFD9DCD-33DA-4C1C-B39D-1F8C0CA940C0}" name="Manufacturer" dataDxfId="42" dataCellStyle="60% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{91732ACF-B59B-4736-A06E-BE7ADB4669C2}" name="Model" dataDxfId="41" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="4" xr3:uid="{AC38EB39-9FE7-4815-9A95-BD4739621249}" name="Unit Sales" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{48155666-2FFE-4435-98FA-77A71F62A4CD}" name="Price" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{E6C9B305-43C4-4AA9-AF99-52F226A2A489}" name="Year Resale Value" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{53AB75B2-B4C7-4B08-A310-E333B5D08F1E}" name="Retention %" dataDxfId="37" dataCellStyle="Percent">
       <calculatedColumnFormula>SUM(E2/D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14C0ED08-C800-44FC-AEFF-AD4CB3BA4CE3}" name="Retention Value" dataDxfId="44" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{14C0ED08-C800-44FC-AEFF-AD4CB3BA4CE3}" name="Retention Value" dataDxfId="36" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(F2&gt;69%, "GOOD", "POOR")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2D1C7A45-6CF4-4F66-812C-40A50CEEFE3C}" name="Engine Size" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{6F868495-C5F3-4EB0-A931-7DB5EE263B04}" name="Horsepower" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{21D8283C-331B-4FBC-ADCB-511EC8FEEA5B}" name="HP Level" dataDxfId="41">
+    <tableColumn id="9" xr3:uid="{2D1C7A45-6CF4-4F66-812C-40A50CEEFE3C}" name="Engine Size" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{6F868495-C5F3-4EB0-A931-7DB5EE263B04}" name="Horsepower" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{21D8283C-331B-4FBC-ADCB-511EC8FEEA5B}" name="HP Level" dataDxfId="33">
       <calculatedColumnFormula array="1">_xlfn.IFS(I2&gt;299,"High HP",I2&gt;99,"Medium HP",I2&lt;100,"Low HP")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D8DD2294-3DBB-4222-BDE1-25B41E8C6E23}" name="Vehicle_type" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{41974CDD-17C2-4811-8CA1-4FE62EF36874}" name="Fuel Efficiency" dataDxfId="39"/>
-    <tableColumn id="19" xr3:uid="{FF974689-EC10-4BD7-931E-F6D2FC8A04BB}" name="Power Perf Factor" dataDxfId="38"/>
-    <tableColumn id="16" xr3:uid="{A47D6D7B-55BF-4939-8425-7A7DC0E408AE}" name="Fuel Capacity" dataDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{59E0B2CA-E73A-4CDD-A62F-F1A4C75E90F7}" name="Wheelbase" dataDxfId="36"/>
-    <tableColumn id="13" xr3:uid="{1318511A-327E-4603-9CFA-8A67BC21BEB8}" name="Width" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{B48108FE-8EF4-43AB-ACEA-F7B30A9D3C55}" name="Length" dataDxfId="34"/>
-    <tableColumn id="15" xr3:uid="{1C70CD07-6AE4-4D29-95C6-1D02DF8772F3}" name="Curb Weight" dataDxfId="33"/>
-    <tableColumn id="18" xr3:uid="{801588FA-173B-403F-BAF7-D1F66FFF62EA}" name="Latest Launch" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{D8DD2294-3DBB-4222-BDE1-25B41E8C6E23}" name="Vehicle_type" dataDxfId="32"/>
+    <tableColumn id="17" xr3:uid="{41974CDD-17C2-4811-8CA1-4FE62EF36874}" name="Fuel Efficiency" dataDxfId="31"/>
+    <tableColumn id="19" xr3:uid="{FF974689-EC10-4BD7-931E-F6D2FC8A04BB}" name="Power Perf Factor" dataDxfId="30"/>
+    <tableColumn id="16" xr3:uid="{A47D6D7B-55BF-4939-8425-7A7DC0E408AE}" name="Fuel Capacity" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{59E0B2CA-E73A-4CDD-A62F-F1A4C75E90F7}" name="Wheelbase" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{1318511A-327E-4603-9CFA-8A67BC21BEB8}" name="Width" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{B48108FE-8EF4-43AB-ACEA-F7B30A9D3C55}" name="Length" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{1C70CD07-6AE4-4D29-95C6-1D02DF8772F3}" name="Curb Weight" dataDxfId="25"/>
+    <tableColumn id="18" xr3:uid="{801588FA-173B-403F-BAF7-D1F66FFF62EA}" name="Latest Launch" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -26007,10 +26341,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="POOR">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="POOR">
       <formula>NOT(ISERROR(SEARCH("POOR",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26032,7 +26366,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -26057,62 +26391,69 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B4" s="17">
-        <v>21986.666666666668</v>
+        <v>28270</v>
       </c>
       <c r="C4" s="17">
-        <v>30633.333333333332</v>
+        <v>39980</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B5" s="17">
-        <v>28270</v>
+        <v>29766.666666666668</v>
       </c>
       <c r="C5" s="17">
-        <v>39980</v>
+        <v>33096.666666666664</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="B6" s="17">
-        <v>29766.666666666668</v>
+        <v>39876.555555555555</v>
       </c>
       <c r="C6" s="17">
-        <v>33096.666666666664</v>
+        <v>52916.666666666664</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="B7" s="17">
-        <v>14941.25</v>
+        <v>56475</v>
       </c>
       <c r="C7" s="17">
-        <v>26781.25</v>
+        <v>62473.333333333336</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B8" s="17">
-        <v>23064.23076923077</v>
+        <v>13951.833333333334</v>
       </c>
       <c r="C8" s="17">
-        <v>32173.461538461539</v>
+        <v>17698.333333333332</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9"/>
-      <c r="C9"/>
+      <c r="A9" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="17">
+        <v>32755.625</v>
+      </c>
+      <c r="C9" s="17">
+        <v>41212.083333333336</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10"/>
@@ -34931,7 +35272,7 @@
         <v>41272</v>
       </c>
     </row>
-    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>181</v>
       </c>
@@ -34993,7 +35334,7 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>181</v>
       </c>
@@ -35055,7 +35396,7 @@
         <v>40811</v>
       </c>
     </row>
-    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>181</v>
       </c>
@@ -35117,7 +35458,7 @@
         <v>40669</v>
       </c>
     </row>
-    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>181</v>
       </c>
@@ -35179,7 +35520,7 @@
         <v>41187</v>
       </c>
     </row>
-    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>181</v>
       </c>
@@ -35987,10 +36328,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="POOR">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="POOR">
       <formula>NOT(ISERROR(SEARCH("POOR",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36014,8 +36355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FE5CB7-438E-4F08-ACF0-787A62423E83}">
   <dimension ref="J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
